--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE618F94-5E8D-4F51-B134-86409EA34686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247880F-8553-47F2-92CB-CB4AC90F1C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
   <si>
     <t>Item</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>Snacks</t>
+  </si>
+  <si>
+    <t>Cream bell kesar badam milk</t>
+  </si>
+  <si>
+    <t>Cream bell kesar badam milk.JPG</t>
+  </si>
+  <si>
+    <t>DEW20</t>
+  </si>
+  <si>
+    <t>DEW20.JPG</t>
   </si>
 </sst>
 </file>
@@ -724,13 +736,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -1792,6 +1811,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B247880F-8553-47F2-92CB-CB4AC90F1C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FEFC5-BBD2-40D4-AFDC-187FC724FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,13 +358,13 @@
     <t>Cream bell kesar badam milk</t>
   </si>
   <si>
-    <t>Cream bell kesar badam milk.JPG</t>
-  </si>
-  <si>
     <t>DEW20</t>
   </si>
   <si>
-    <t>DEW20.JPG</t>
+    <t>Cream bell kesar badam milk.jpg</t>
+  </si>
+  <si>
+    <t>DEW20.jpg</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1825,7 +1825,7 @@
         <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1836,7 +1836,7 @@
         <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>0</v>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077FEFC5-BBD2-40D4-AFDC-187FC724FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7EEA02-E5EB-4DA2-818C-5856A90F380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
     <t>Cream bell kesar badam milk.jpg</t>
   </si>
   <si>
-    <t>DEW20.jpg</t>
+    <t>Dew_20.jpg</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7EEA02-E5EB-4DA2-818C-5856A90F380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A3837-1B34-46CC-8CEF-8D4C56A9E8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -736,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,16 +1117,16 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -1136,16 +1137,16 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -1156,16 +1157,16 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -1173,19 +1174,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -1196,16 +1197,16 @@
         <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -1216,16 +1217,16 @@
         <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>550</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -1236,16 +1237,16 @@
         <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1256,16 +1257,16 @@
         <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -1276,16 +1277,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1296,16 +1297,16 @@
         <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1316,16 +1317,16 @@
         <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1333,19 +1334,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1356,16 +1357,16 @@
         <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1376,16 +1377,16 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -1396,16 +1397,16 @@
         <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1416,16 +1417,16 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1436,16 +1437,16 @@
         <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -1456,16 +1457,16 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -1476,7 +1477,7 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1485,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1496,16 +1497,16 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1516,16 +1517,16 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1536,16 +1537,16 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1556,16 +1557,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1576,16 +1577,16 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -1593,10 +1594,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1605,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -1616,7 +1617,7 @@
         <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1625,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1636,7 +1637,7 @@
         <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1645,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1656,16 +1657,16 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1676,7 +1677,7 @@
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1685,7 +1686,7 @@
         <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1696,16 +1697,16 @@
         <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1716,7 +1717,7 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1725,7 +1726,7 @@
         <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1736,16 +1737,16 @@
         <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1756,16 +1757,16 @@
         <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1776,16 +1777,16 @@
         <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1796,7 +1797,7 @@
         <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1805,7 +1806,7 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1816,7 +1817,7 @@
         <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1825,33 +1826,48 @@
         <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>20</v>
-      </c>
-      <c r="E55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A0B00E-8362-46AB-B8E6-BFD8D64B6C3C}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A3837-1B34-46CC-8CEF-8D4C56A9E8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD616D-5C23-42EA-AA88-1F27DE631D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
   <si>
     <t>Item</t>
   </si>
@@ -146,12 +145,6 @@
     <t>Peri- Peri French Fires.jpg</t>
   </si>
   <si>
-    <t>vegetable-mayonnaise-sandwich</t>
-  </si>
-  <si>
-    <t>vegetable-mayonnaise-sandwich.jpg</t>
-  </si>
-  <si>
     <t>Aloo Patty</t>
   </si>
   <si>
@@ -366,6 +359,30 @@
   </si>
   <si>
     <t>Dew_20.jpg</t>
+  </si>
+  <si>
+    <t>haldiram gupshup 200gm.jpg</t>
+  </si>
+  <si>
+    <t>Haldiram GupShup 200gm</t>
+  </si>
+  <si>
+    <t>Haldiram's nut crusherhaldiram's nut crushers signature roasted peanuts 200 gm</t>
+  </si>
+  <si>
+    <t>haldiram's nut crushers signature roasted peanuts 200 gm.jpg</t>
+  </si>
+  <si>
+    <t>Haldiram Aloo bhujia 200gm</t>
+  </si>
+  <si>
+    <t>Haldiram Aloo bhujia 200gm.jpg</t>
+  </si>
+  <si>
+    <t>Haldiram Nut Cracker 200gm</t>
+  </si>
+  <si>
+    <t>Haldiram Nut Cracker 200gm.jpg</t>
   </si>
 </sst>
 </file>
@@ -737,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1117,7 +1134,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1126,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -1137,7 +1154,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1146,7 +1163,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -1157,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1166,7 +1183,7 @@
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -1174,10 +1191,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1186,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -1194,10 +1211,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1206,7 +1223,7 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -1214,10 +1231,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1226,7 +1243,7 @@
         <v>550</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -1234,10 +1251,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1246,7 +1263,7 @@
         <v>480</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -1254,10 +1271,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1266,7 +1283,7 @@
         <v>500</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -1274,10 +1291,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1286,7 +1303,7 @@
         <v>350</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1294,10 +1311,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1306,7 +1323,7 @@
         <v>450</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -1314,10 +1331,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1326,7 +1343,7 @@
         <v>400</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -1334,10 +1351,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1346,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -1354,10 +1371,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1366,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -1374,10 +1391,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1386,7 +1403,7 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -1394,10 +1411,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1406,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
         <v>7</v>
@@ -1414,10 +1431,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1426,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1434,10 +1451,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1446,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
         <v>7</v>
@@ -1454,10 +1471,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1466,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -1474,10 +1491,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1486,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
         <v>7</v>
@@ -1494,10 +1511,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1506,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -1514,10 +1531,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1526,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s">
         <v>7</v>
@@ -1534,10 +1551,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1546,7 +1563,7 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1554,10 +1571,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1566,7 +1583,7 @@
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1574,10 +1591,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1586,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -1597,16 +1614,16 @@
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -1617,16 +1634,16 @@
         <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1637,16 +1654,16 @@
         <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1657,16 +1674,16 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1674,19 +1691,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1694,19 +1711,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1714,19 +1731,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1734,19 +1751,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1754,19 +1771,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1774,19 +1791,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1794,19 +1811,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1814,60 +1831,105 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
         <v>111</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="F58" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A0B00E-8362-46AB-B8E6-BFD8D64B6C3C}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAD616D-5C23-42EA-AA88-1F27DE631D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763407A-C032-43D2-82B6-C6DD21F40A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
   <si>
     <t>Item</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>Haldiram Nut Cracker 200gm.jpg</t>
+  </si>
+  <si>
+    <t>Melody toffee 1 rs</t>
+  </si>
+  <si>
+    <t>Melody toffee 1 rs.jpg</t>
   </si>
 </sst>
 </file>
@@ -401,6 +407,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -754,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1691,19 +1698,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1714,7 +1721,7 @@
         <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1723,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1734,7 +1741,7 @@
         <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1743,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1754,16 +1761,16 @@
         <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1774,7 +1781,7 @@
         <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1783,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1794,16 +1801,16 @@
         <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1814,7 +1821,7 @@
         <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1823,7 +1830,7 @@
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1834,16 +1841,16 @@
         <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1854,16 +1861,16 @@
         <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1874,16 +1881,16 @@
         <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1894,7 +1901,7 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1903,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -1914,7 +1921,7 @@
         <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1923,9 +1930,29 @@
         <v>20</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
         <v>111</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763407A-C032-43D2-82B6-C6DD21F40A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE13DD9-3401-46CE-995D-E9F71B9A7223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="124">
   <si>
     <t>Item</t>
   </si>
@@ -262,9 +262,6 @@
     <t>5 Star 5 rs.jpg</t>
   </si>
   <si>
-    <t>dairy milk chocolate 20 rs</t>
-  </si>
-  <si>
     <t>dairy milk chocolate 20 rs.jpg</t>
   </si>
   <si>
@@ -389,6 +386,15 @@
   </si>
   <si>
     <t>Melody toffee 1 rs.jpg</t>
+  </si>
+  <si>
+    <t>Dairy Milk Chocolate Mega pack 45 rs</t>
+  </si>
+  <si>
+    <t>Dairy Milk Chocolate Mega pack 45 rs.jpg</t>
+  </si>
+  <si>
+    <t>Dairy Milk Chocolate 20 rs</t>
   </si>
 </sst>
 </file>
@@ -761,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,7 +1204,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -1218,7 +1224,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -1238,7 +1244,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -1258,7 +1264,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -1278,7 +1284,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -1298,7 +1304,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -1318,7 +1324,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -1358,7 +1364,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -1398,7 +1404,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -1418,7 +1424,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -1438,7 +1444,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -1478,7 +1484,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -1498,7 +1504,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1518,7 +1524,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -1558,10 +1564,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1570,7 +1576,7 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -1578,19 +1584,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1678,10 +1684,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1690,7 +1696,7 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1738,10 +1744,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1750,7 +1756,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1758,10 +1764,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1770,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1798,10 +1804,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1810,7 +1816,7 @@
         <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1818,19 +1824,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1838,10 +1844,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1850,7 +1856,7 @@
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1858,19 +1864,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -1918,10 +1924,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1930,7 +1936,7 @@
         <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -1938,10 +1944,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1950,9 +1956,29 @@
         <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE13DD9-3401-46CE-995D-E9F71B9A7223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508C58B3-D528-4BE5-8A1F-3931332F34DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
     <t>Dairy Milk Chocolate Mega pack 45 rs</t>
   </si>
   <si>
-    <t>Dairy Milk Chocolate Mega pack 45 rs.jpg</t>
-  </si>
-  <si>
     <t>Dairy Milk Chocolate 20 rs</t>
+  </si>
+  <si>
+    <t>Dairy Milk Chocolate Mega pack 45.jpg</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1567,7 +1567,7 @@
         <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508C58B3-D528-4BE5-8A1F-3931332F34DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BD44D-C5A2-4A2E-A907-4352E6B3CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
     <t>Dairy Milk Chocolate 20 rs</t>
   </si>
   <si>
-    <t>Dairy Milk Chocolate Mega pack 45.jpg</t>
+    <t>Dairy milk chocolate Mega pack 45.jpg</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752BD44D-C5A2-4A2E-A907-4352E6B3CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5ED25-A163-4C2B-9D7D-3D137142138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="E25" t="s">
         <v>53</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E26" t="s">
         <v>55</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E27" t="s">
         <v>53</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="E28" t="s">
         <v>51</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E29" t="s">
         <v>55</v>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5ED25-A163-4C2B-9D7D-3D137142138E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE79D51A-D559-456B-93ED-B8A8BAA1C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
   <si>
     <t>Item</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>Dairy milk chocolate Mega pack 45.jpg</t>
+  </si>
+  <si>
+    <t>Haldiram's All in one 200 gm</t>
   </si>
 </sst>
 </file>
@@ -767,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,16 +1730,16 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1744,19 +1747,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1767,7 +1770,7 @@
         <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1776,7 +1779,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1787,7 +1790,7 @@
         <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1796,7 +1799,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1807,16 +1810,16 @@
         <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1827,7 +1830,7 @@
         <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1836,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1847,16 +1850,16 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1867,7 +1870,7 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1876,7 +1879,7 @@
         <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1887,16 +1890,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1907,16 +1910,16 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -1927,16 +1930,16 @@
         <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -1947,7 +1950,7 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1956,7 +1959,7 @@
         <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -1967,7 +1970,7 @@
         <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1976,9 +1979,29 @@
         <v>20</v>
       </c>
       <c r="E60" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
         <v>110</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE79D51A-D559-456B-93ED-B8A8BAA1C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E28DB9-851E-4039-9790-6EC07D187A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="126">
   <si>
     <t>Item</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>Haldiram's All in one 200 gm</t>
+  </si>
+  <si>
+    <t>Haldiram's All in one 200 gm.jpg</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1739,7 +1742,7 @@
         <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E28DB9-851E-4039-9790-6EC07D187A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABED34A-C892-441C-B484-543C8684757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
   <si>
     <t>Item</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>Haldiram's All in one 200 gm.jpg</t>
+  </si>
+  <si>
+    <t>Kinder Creamy</t>
+  </si>
+  <si>
+    <t>Kinder Creamy.jpg</t>
   </si>
 </sst>
 </file>
@@ -773,9 +779,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -1753,16 +1759,16 @@
         <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1793,7 +1799,7 @@
         <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1802,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1813,7 +1819,7 @@
         <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1822,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1833,16 +1839,16 @@
         <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1853,7 +1859,7 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1862,7 +1868,7 @@
         <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1873,16 +1879,16 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1893,7 +1899,7 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1902,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1913,16 +1919,16 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -1933,16 +1939,16 @@
         <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -1953,16 +1959,16 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -1973,7 +1979,7 @@
         <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1982,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -1993,7 +1999,7 @@
         <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2002,9 +2008,29 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
         <v>110</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABED34A-C892-441C-B484-543C8684757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF739C-ADF2-482E-8901-075BF46656FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
   <si>
     <t>Item</t>
   </si>
@@ -407,6 +407,18 @@
   </si>
   <si>
     <t>Kinder Creamy.jpg</t>
+  </si>
+  <si>
+    <t>Sting 20 rs</t>
+  </si>
+  <si>
+    <t>Sting 20 rs.jpg</t>
+  </si>
+  <si>
+    <t>TAKA TAK</t>
+  </si>
+  <si>
+    <t>TAKA TAK.jpg</t>
   </si>
 </sst>
 </file>
@@ -779,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1779,16 +1791,16 @@
         <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1796,19 +1808,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1819,7 +1831,7 @@
         <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1828,7 +1840,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1839,7 +1851,7 @@
         <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1848,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1859,16 +1871,16 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1879,7 +1891,7 @@
         <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1888,7 +1900,7 @@
         <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1899,16 +1911,16 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1919,7 +1931,7 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1928,7 +1940,7 @@
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -1939,16 +1951,16 @@
         <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -1959,16 +1971,16 @@
         <v>104</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -1979,16 +1991,16 @@
         <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -1999,7 +2011,7 @@
         <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2008,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -2019,7 +2031,7 @@
         <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2028,9 +2040,49 @@
         <v>20</v>
       </c>
       <c r="E62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
         <v>110</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF739C-ADF2-482E-8901-075BF46656FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B058F-4BF9-4092-B3A5-A8606AB627B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
   <si>
     <t>Item</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Frooti20.jpg</t>
   </si>
   <si>
-    <t>Thumsup25</t>
-  </si>
-  <si>
     <t>Thusmup Can.jpg</t>
   </si>
   <si>
@@ -419,6 +416,45 @@
   </si>
   <si>
     <t>TAKA TAK.jpg</t>
+  </si>
+  <si>
+    <t>Hell</t>
+  </si>
+  <si>
+    <t>Hell.jpg</t>
+  </si>
+  <si>
+    <t>Big Bottel Cold Drink</t>
+  </si>
+  <si>
+    <t>Big Bottle 85.jpg</t>
+  </si>
+  <si>
+    <t>Popz</t>
+  </si>
+  <si>
+    <t>Duo</t>
+  </si>
+  <si>
+    <t>Act II Sweet And Salty</t>
+  </si>
+  <si>
+    <t>Act II Sweet And Salty.jpg</t>
+  </si>
+  <si>
+    <t>Popz.jpg</t>
+  </si>
+  <si>
+    <t>Act II Pop corn Butter</t>
+  </si>
+  <si>
+    <t>Duo 5.jpg</t>
+  </si>
+  <si>
+    <t>Act II Pop corn Butter.jpg</t>
+  </si>
+  <si>
+    <t>Thumsup30</t>
   </si>
 </sst>
 </file>
@@ -791,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,7 +1264,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -1248,7 +1284,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
@@ -1268,7 +1304,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -1288,7 +1324,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
@@ -1308,7 +1344,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -1328,7 +1364,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -1348,7 +1384,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -1368,7 +1404,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -1388,7 +1424,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -1408,7 +1444,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
@@ -1428,7 +1464,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
@@ -1448,7 +1484,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -1468,7 +1504,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -1488,7 +1524,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
@@ -1508,7 +1544,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -1528,7 +1564,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
@@ -1548,7 +1584,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
@@ -1568,7 +1604,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -1588,10 +1624,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1608,10 +1644,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1620,7 +1656,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
         <v>7</v>
@@ -1628,7 +1664,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
@@ -1648,7 +1684,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
         <v>82</v>
@@ -1668,10 +1704,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1680,7 +1716,7 @@
         <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
         <v>7</v>
@@ -1688,10 +1724,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1700,7 +1736,7 @@
         <v>62</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
         <v>7</v>
@@ -1708,10 +1744,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1720,7 +1756,7 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s">
         <v>7</v>
@@ -1728,10 +1764,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1740,7 +1776,7 @@
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
         <v>7</v>
@@ -1748,10 +1784,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1760,7 +1796,7 @@
         <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
@@ -1768,10 +1804,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1780,7 +1816,7 @@
         <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -1788,10 +1824,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1800,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1808,19 +1844,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
@@ -1828,19 +1864,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
@@ -1848,19 +1884,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -1868,10 +1904,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1880,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
@@ -1888,19 +1924,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
@@ -1908,19 +1944,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
@@ -1928,19 +1964,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -1948,19 +1984,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -1968,19 +2004,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
@@ -1988,19 +2024,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
@@ -2008,19 +2044,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -2028,19 +2064,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -2048,19 +2084,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -2068,21 +2104,141 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
         <v>128</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>20</v>
-      </c>
-      <c r="E64" t="s">
-        <v>129</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>60</v>
+      </c>
+      <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>85</v>
+      </c>
+      <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>7</v>
       </c>
     </row>

--- a/DhalisMenu_cat.xlsx
+++ b/DhalisMenu_cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All DATA Important\Projects\New folder\restaurant_billing_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B058F-4BF9-4092-B3A5-A8606AB627B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE69A2-9C1F-40B5-9C2F-319FB75620FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2047,16 +2047,16 @@
         <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
@@ -2067,16 +2067,16 @@
         <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -2087,16 +2087,16 @@
         <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -2107,16 +2107,16 @@
         <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -2127,16 +2127,16 @@
         <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -2147,16 +2147,16 @@
         <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -2167,16 +2167,16 @@
         <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -2187,16 +2187,16 @@
         <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
